--- a/02_詳細設計書/03_外部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
+++ b/02_詳細設計書/03_外部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\01_Git\0907\02_詳細設計書\03_外部レビュー\チーム2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00EB77D-2C9D-4E5C-9028-5785B5EC73D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5580A-1442-449B-BA81-834CA9496BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="774" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2361,6 +2361,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2370,34 +2387,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2418,16 +2408,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2448,7 +2435,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2469,74 +2549,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2610,36 +2627,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2684,22 +2671,35 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -6370,72 +6370,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="144"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="144"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -6607,124 +6607,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="132" t="s">
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="132" t="s">
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="132" t="s">
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="132" t="s">
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="134"/>
+      <c r="AE11" s="141"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="135" t="s">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="145" t="s">
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="145" t="s">
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="135" t="s">
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="AE12" s="137"/>
+      <c r="AE12" s="135"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="150"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="150"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="140"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="146"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="136"/>
+      <c r="AE13" s="138"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -6929,630 +6929,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="141" t="s">
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="141" t="s">
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="143"/>
-      <c r="AC20" s="141" t="s">
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="142"/>
-      <c r="AE20" s="143"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="153"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="120" t="s">
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="120" t="s">
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="122"/>
-      <c r="AC21" s="120" t="s">
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="122"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="131"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="122"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="130"/>
+      <c r="AA22" s="130"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="131"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="120"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="122"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="130"/>
+      <c r="AA23" s="130"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="131"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="122"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="131"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="122"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="131"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="121"/>
-      <c r="AE26" s="122"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="130"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
+      <c r="V26" s="130"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
+      <c r="Z26" s="130"/>
+      <c r="AA26" s="130"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="131"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="122"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="131"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="122"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="122"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="130"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="130"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="131"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="120"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="122"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="131"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="131"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="131"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="158"/>
+      <c r="V30" s="158"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="158"/>
+      <c r="AE30" s="159"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="131"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="159"/>
+      <c r="AC31" s="157"/>
+      <c r="AD31" s="158"/>
+      <c r="AE31" s="159"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="131"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="158"/>
+      <c r="T32" s="158"/>
+      <c r="U32" s="158"/>
+      <c r="V32" s="158"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="158"/>
+      <c r="AE32" s="159"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="131"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="158"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="159"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="158"/>
+      <c r="AE33" s="159"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="131"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="158"/>
+      <c r="S34" s="158"/>
+      <c r="T34" s="158"/>
+      <c r="U34" s="158"/>
+      <c r="V34" s="158"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="158"/>
+      <c r="AA34" s="158"/>
+      <c r="AB34" s="159"/>
+      <c r="AC34" s="157"/>
+      <c r="AD34" s="158"/>
+      <c r="AE34" s="159"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="130"/>
-      <c r="AE35" s="131"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="158"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="158"/>
+      <c r="W35" s="158"/>
+      <c r="X35" s="158"/>
+      <c r="Y35" s="158"/>
+      <c r="Z35" s="158"/>
+      <c r="AA35" s="158"/>
+      <c r="AB35" s="159"/>
+      <c r="AC35" s="157"/>
+      <c r="AD35" s="158"/>
+      <c r="AE35" s="159"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="130"/>
-      <c r="AB36" s="131"/>
-      <c r="AC36" s="129"/>
-      <c r="AD36" s="130"/>
-      <c r="AE36" s="131"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="158"/>
+      <c r="R36" s="158"/>
+      <c r="S36" s="158"/>
+      <c r="T36" s="158"/>
+      <c r="U36" s="158"/>
+      <c r="V36" s="158"/>
+      <c r="W36" s="158"/>
+      <c r="X36" s="158"/>
+      <c r="Y36" s="158"/>
+      <c r="Z36" s="158"/>
+      <c r="AA36" s="158"/>
+      <c r="AB36" s="159"/>
+      <c r="AC36" s="157"/>
+      <c r="AD36" s="158"/>
+      <c r="AE36" s="159"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="130"/>
-      <c r="U37" s="130"/>
-      <c r="V37" s="130"/>
-      <c r="W37" s="130"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="131"/>
-      <c r="AC37" s="129"/>
-      <c r="AD37" s="130"/>
-      <c r="AE37" s="131"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="158"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="158"/>
+      <c r="R37" s="158"/>
+      <c r="S37" s="158"/>
+      <c r="T37" s="158"/>
+      <c r="U37" s="158"/>
+      <c r="V37" s="158"/>
+      <c r="W37" s="158"/>
+      <c r="X37" s="158"/>
+      <c r="Y37" s="158"/>
+      <c r="Z37" s="158"/>
+      <c r="AA37" s="158"/>
+      <c r="AB37" s="159"/>
+      <c r="AC37" s="157"/>
+      <c r="AD37" s="158"/>
+      <c r="AE37" s="159"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -7591,17 +7591,62 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="J23:AB23"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -7618,62 +7663,17 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7708,171 +7708,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="212" t="s">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="212" t="s">
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="238"/>
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="239"/>
       <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="212" t="s">
+      <c r="AF2" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="214"/>
+      <c r="AG2" s="239"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="205" t="str">
+      <c r="A3" s="230" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="205" t="str">
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="230" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="205" t="str">
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="230" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="205" t="str">
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="234"/>
+      <c r="Y3" s="234"/>
+      <c r="Z3" s="234"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="230" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AE3" s="206"/>
-      <c r="AF3" s="205" t="str">
+      <c r="AE3" s="231"/>
+      <c r="AF3" s="230" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AG3" s="206"/>
+      <c r="AG3" s="231"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="207"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="208"/>
+      <c r="A4" s="232"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="235"/>
+      <c r="U4" s="235"/>
+      <c r="V4" s="235"/>
+      <c r="W4" s="235"/>
+      <c r="X4" s="235"/>
+      <c r="Y4" s="235"/>
+      <c r="Z4" s="235"/>
+      <c r="AA4" s="235"/>
+      <c r="AB4" s="235"/>
+      <c r="AC4" s="233"/>
+      <c r="AD4" s="232"/>
+      <c r="AE4" s="233"/>
+      <c r="AF4" s="232"/>
+      <c r="AG4" s="233"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -8085,94 +8085,94 @@
     </row>
     <row r="7" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="227"/>
-      <c r="D7" s="217" t="s">
+      <c r="C7" s="226"/>
+      <c r="D7" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="217" t="s">
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="226"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="217" t="s">
+      <c r="I7" s="225"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="226"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="217" t="s">
+      <c r="L7" s="225"/>
+      <c r="M7" s="226"/>
+      <c r="N7" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="217" t="s">
+      <c r="O7" s="217"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="219"/>
-      <c r="S7" s="217" t="s">
+      <c r="R7" s="218"/>
+      <c r="S7" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="218"/>
-      <c r="U7" s="219"/>
-      <c r="V7" s="217" t="s">
+      <c r="T7" s="217"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="218"/>
-      <c r="X7" s="219"/>
-      <c r="Y7" s="217" t="s">
+      <c r="W7" s="217"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="218"/>
-      <c r="AE7" s="219"/>
+      <c r="Z7" s="217"/>
+      <c r="AA7" s="217"/>
+      <c r="AB7" s="217"/>
+      <c r="AC7" s="217"/>
+      <c r="AD7" s="217"/>
+      <c r="AE7" s="218"/>
       <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="216"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="220" t="s">
+      <c r="H8" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="221"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223" t="s">
+      <c r="I8" s="220"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="224"/>
-      <c r="M8" s="225"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
       <c r="N8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="32"/>
-      <c r="Q8" s="223" t="s">
+      <c r="Q8" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="225"/>
-      <c r="S8" s="228" t="s">
+      <c r="R8" s="224"/>
+      <c r="S8" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="229"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="220" t="s">
+      <c r="T8" s="228"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="221"/>
-      <c r="X8" s="222"/>
+      <c r="W8" s="220"/>
+      <c r="X8" s="221"/>
       <c r="Y8" s="33" t="s">
         <v>24</v>
       </c>
@@ -8835,6 +8835,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="Y7:AE7"/>
     <mergeCell ref="H8:J8"/>
@@ -8850,16 +8860,6 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8894,178 +8894,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="212" t="s">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="212" t="s">
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="212" t="s">
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="214"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="238"/>
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="238"/>
+      <c r="AD2" s="239"/>
       <c r="AE2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="212" t="s">
+      <c r="AG2" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="214"/>
+      <c r="AH2" s="239"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="205" t="str">
+      <c r="A3" s="230" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="205" t="str">
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="230" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="205" t="str">
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="230" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="205" t="s">
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="231"/>
+      <c r="Y3" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="205" t="str">
+      <c r="Z3" s="234"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="231"/>
+      <c r="AE3" s="230" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AF3" s="231"/>
+      <c r="AG3" s="230" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AH3" s="206"/>
+      <c r="AH3" s="231"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="207"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="208"/>
+      <c r="A4" s="232"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="235"/>
+      <c r="M4" s="233"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="235"/>
+      <c r="U4" s="235"/>
+      <c r="V4" s="235"/>
+      <c r="W4" s="235"/>
+      <c r="X4" s="233"/>
+      <c r="Y4" s="232"/>
+      <c r="Z4" s="235"/>
+      <c r="AA4" s="235"/>
+      <c r="AB4" s="235"/>
+      <c r="AC4" s="235"/>
+      <c r="AD4" s="233"/>
+      <c r="AE4" s="232"/>
+      <c r="AF4" s="233"/>
+      <c r="AG4" s="232"/>
+      <c r="AH4" s="233"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -10503,18 +10503,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10545,174 +10545,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="141"/>
     </row>
     <row r="3" spans="1:178" ht="12">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="135"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="138"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="45"/>
@@ -11810,7 +11810,7 @@
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="89"/>
-      <c r="H30" s="231" t="s">
+      <c r="H30" s="120" t="s">
         <v>232</v>
       </c>
       <c r="I30" s="89"/>
@@ -12346,18 +12346,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12390,166 +12390,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="134"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="141"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="132" t="s">
+      <c r="AF2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="134"/>
+      <c r="AG2" s="141"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="135" t="s">
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="135" t="s">
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AG3" s="137"/>
+      <c r="AG3" s="135"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="138"/>
-      <c r="AG4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="138"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
@@ -12745,23 +12745,23 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
-      <c r="U6" s="234"/>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="234"/>
-      <c r="AA6" s="234"/>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="234"/>
-      <c r="AD6" s="234"/>
-      <c r="AE6" s="235"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="124"/>
       <c r="AF6" s="25"/>
       <c r="AG6" s="26"/>
     </row>
@@ -12780,23 +12780,23 @@
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="236"/>
-      <c r="P7" s="236"/>
-      <c r="Q7" s="236"/>
-      <c r="R7" s="236"/>
-      <c r="S7" s="236"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="236"/>
-      <c r="W7" s="236"/>
-      <c r="X7" s="236"/>
-      <c r="Y7" s="236"/>
-      <c r="Z7" s="236"/>
-      <c r="AA7" s="236"/>
-      <c r="AB7" s="236"/>
-      <c r="AC7" s="236"/>
-      <c r="AD7" s="236"/>
-      <c r="AE7" s="234"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="123"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="12"/>
     </row>
@@ -12815,23 +12815,23 @@
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
-      <c r="O8" s="233"/>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="236"/>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="236"/>
-      <c r="W8" s="236"/>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="236"/>
-      <c r="AB8" s="236"/>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="234"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="123"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="12"/>
     </row>
@@ -12850,23 +12850,23 @@
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="233"/>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="236"/>
-      <c r="R9" s="236"/>
-      <c r="S9" s="236"/>
-      <c r="T9" s="236"/>
-      <c r="U9" s="236"/>
-      <c r="V9" s="236"/>
-      <c r="W9" s="236"/>
-      <c r="X9" s="236"/>
-      <c r="Y9" s="236"/>
-      <c r="Z9" s="236"/>
-      <c r="AA9" s="236"/>
-      <c r="AB9" s="236"/>
-      <c r="AC9" s="236"/>
-      <c r="AD9" s="236"/>
-      <c r="AE9" s="234"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="125"/>
+      <c r="AE9" s="123"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="12"/>
     </row>
@@ -12885,23 +12885,23 @@
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="236"/>
-      <c r="U10" s="236"/>
-      <c r="V10" s="236"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="236"/>
-      <c r="Y10" s="236"/>
-      <c r="Z10" s="236"/>
-      <c r="AA10" s="236"/>
-      <c r="AB10" s="236"/>
-      <c r="AC10" s="236"/>
-      <c r="AD10" s="236"/>
-      <c r="AE10" s="234"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="123"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="12"/>
     </row>
@@ -12920,23 +12920,23 @@
       <c r="L11" s="55"/>
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
-      <c r="O11" s="233"/>
-      <c r="P11" s="236"/>
-      <c r="Q11" s="236"/>
-      <c r="R11" s="236"/>
-      <c r="S11" s="236"/>
-      <c r="T11" s="236"/>
-      <c r="U11" s="236"/>
-      <c r="V11" s="236"/>
-      <c r="W11" s="236"/>
-      <c r="X11" s="236"/>
-      <c r="Y11" s="236"/>
-      <c r="Z11" s="236"/>
-      <c r="AA11" s="236"/>
-      <c r="AB11" s="236"/>
-      <c r="AC11" s="236"/>
-      <c r="AD11" s="236"/>
-      <c r="AE11" s="234"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="123"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="12"/>
     </row>
@@ -12955,23 +12955,23 @@
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
-      <c r="O12" s="233"/>
-      <c r="P12" s="236"/>
-      <c r="Q12" s="236"/>
-      <c r="R12" s="236"/>
-      <c r="S12" s="236"/>
-      <c r="T12" s="236"/>
-      <c r="U12" s="236"/>
-      <c r="V12" s="236"/>
-      <c r="W12" s="236"/>
-      <c r="X12" s="236"/>
-      <c r="Y12" s="236"/>
-      <c r="Z12" s="236"/>
-      <c r="AA12" s="236"/>
-      <c r="AB12" s="236"/>
-      <c r="AC12" s="236"/>
-      <c r="AD12" s="236"/>
-      <c r="AE12" s="234"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="125"/>
+      <c r="AE12" s="123"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="12"/>
     </row>
@@ -12990,23 +12990,23 @@
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
-      <c r="O13" s="233"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="236"/>
-      <c r="T13" s="236"/>
-      <c r="U13" s="236"/>
-      <c r="V13" s="236"/>
-      <c r="W13" s="236"/>
-      <c r="X13" s="236"/>
-      <c r="Y13" s="236"/>
-      <c r="Z13" s="236"/>
-      <c r="AA13" s="236"/>
-      <c r="AB13" s="236"/>
-      <c r="AC13" s="236"/>
-      <c r="AD13" s="236"/>
-      <c r="AE13" s="234"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="123"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="12"/>
     </row>
@@ -13025,212 +13025,212 @@
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
       <c r="N14" s="55"/>
-      <c r="O14" s="233"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="236"/>
-      <c r="W14" s="236"/>
-      <c r="X14" s="236"/>
-      <c r="Y14" s="236"/>
-      <c r="Z14" s="236"/>
-      <c r="AA14" s="236"/>
-      <c r="AB14" s="236"/>
-      <c r="AC14" s="236"/>
-      <c r="AD14" s="236"/>
-      <c r="AE14" s="234"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="125"/>
+      <c r="AE14" s="123"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="232"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="55"/>
-      <c r="O15" s="233"/>
-      <c r="P15" s="236"/>
-      <c r="Q15" s="236"/>
-      <c r="R15" s="236"/>
-      <c r="S15" s="236"/>
-      <c r="T15" s="236"/>
-      <c r="U15" s="236"/>
-      <c r="V15" s="236"/>
-      <c r="W15" s="236"/>
-      <c r="X15" s="236"/>
-      <c r="Y15" s="236"/>
-      <c r="Z15" s="236"/>
-      <c r="AA15" s="236"/>
-      <c r="AB15" s="236"/>
-      <c r="AC15" s="236"/>
-      <c r="AD15" s="236"/>
-      <c r="AE15" s="234"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="123"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="232"/>
-      <c r="B16" s="233"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
       <c r="N16" s="55"/>
-      <c r="O16" s="233"/>
-      <c r="P16" s="236"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="236"/>
-      <c r="S16" s="236"/>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="236"/>
-      <c r="W16" s="236"/>
-      <c r="X16" s="236"/>
-      <c r="Y16" s="236"/>
-      <c r="Z16" s="236"/>
-      <c r="AA16" s="236"/>
-      <c r="AB16" s="236"/>
-      <c r="AC16" s="236"/>
-      <c r="AD16" s="236"/>
-      <c r="AE16" s="234"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="123"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="12"/>
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A17" s="232"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
       <c r="M17" s="55"/>
       <c r="N17" s="55"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="236"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="236"/>
-      <c r="W17" s="236"/>
-      <c r="X17" s="236"/>
-      <c r="Y17" s="236"/>
-      <c r="Z17" s="236"/>
-      <c r="AA17" s="236"/>
-      <c r="AB17" s="236"/>
-      <c r="AC17" s="236"/>
-      <c r="AD17" s="236"/>
-      <c r="AE17" s="234"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="123"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="12"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="232"/>
-      <c r="B18" s="233"/>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="233"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
       <c r="N18" s="55"/>
-      <c r="O18" s="233"/>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="236"/>
-      <c r="V18" s="236"/>
-      <c r="W18" s="236"/>
-      <c r="X18" s="236"/>
-      <c r="Y18" s="236"/>
-      <c r="Z18" s="236"/>
-      <c r="AA18" s="236"/>
-      <c r="AB18" s="236"/>
-      <c r="AC18" s="236"/>
-      <c r="AD18" s="236"/>
-      <c r="AE18" s="234"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="125"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="123"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="232"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="233"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
       <c r="N19" s="55"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="236"/>
-      <c r="Q19" s="236"/>
-      <c r="R19" s="236"/>
-      <c r="S19" s="236"/>
-      <c r="T19" s="236"/>
-      <c r="U19" s="236"/>
-      <c r="V19" s="236"/>
-      <c r="W19" s="236"/>
-      <c r="X19" s="236"/>
-      <c r="Y19" s="236"/>
-      <c r="Z19" s="236"/>
-      <c r="AA19" s="236"/>
-      <c r="AB19" s="236"/>
-      <c r="AC19" s="236"/>
-      <c r="AD19" s="236"/>
-      <c r="AE19" s="234"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="123"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="232"/>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="233"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="233"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
@@ -13256,16 +13256,16 @@
       <c r="AG20" s="12"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="232"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="233"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -13291,16 +13291,16 @@
       <c r="AG21" s="12"/>
     </row>
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="232"/>
-      <c r="B22" s="233"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="233"/>
-      <c r="G22" s="233"/>
-      <c r="H22" s="233"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="233"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
@@ -13326,16 +13326,16 @@
       <c r="AG22" s="12"/>
     </row>
     <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="232"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="233"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -13361,16 +13361,16 @@
       <c r="AG23" s="12"/>
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="232"/>
-      <c r="B24" s="233"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="233"/>
-      <c r="G24" s="233"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="233"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="55"/>
@@ -13396,16 +13396,16 @@
       <c r="AG24" s="12"/>
     </row>
     <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="232"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="233"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -13431,16 +13431,16 @@
       <c r="AG25" s="12"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="232"/>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -13466,16 +13466,16 @@
       <c r="AG26" s="12"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="232"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="233"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -13501,16 +13501,16 @@
       <c r="AG27" s="12"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="232"/>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="233"/>
-      <c r="I28" s="233"/>
-      <c r="J28" s="233"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
@@ -14097,16 +14097,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14126,7 +14126,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="AK29" sqref="AK29"/>
+      <selection pane="bottomLeft" activeCell="AN30" sqref="AN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -14139,166 +14139,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="134"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="141"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="132" t="s">
+      <c r="AF2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="134"/>
+      <c r="AG2" s="141"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="135" t="s">
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="135" t="s">
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AG3" s="137"/>
+      <c r="AG3" s="135"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="138"/>
-      <c r="AG4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="138"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -14620,18 +14620,18 @@
       <c r="AG9" s="67"/>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159">
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="188">
         <v>1</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
       <c r="K10" s="83"/>
@@ -14659,18 +14659,18 @@
       <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158" t="s">
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
       <c r="I11" s="77"/>
       <c r="J11" s="78"/>
       <c r="K11" s="79"/>
@@ -14698,18 +14698,18 @@
       <c r="AG11" s="67"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158" t="s">
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
       <c r="I12" s="77"/>
       <c r="J12" s="78"/>
       <c r="K12" s="79"/>
@@ -14820,17 +14820,17 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="152" t="s">
+      <c r="N15" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="153" t="s">
+      <c r="O15" s="182"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="153"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="155"/>
+      <c r="R15" s="183"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="185"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
       <c r="W15" s="79"/>
@@ -14859,13 +14859,13 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="157"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="183"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="187"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
       <c r="W16" s="79"/>
@@ -14928,59 +14928,59 @@
       </c>
     </row>
     <row r="18" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="164" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="164" t="s">
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="164" t="s">
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="164" t="s">
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="O18" s="165"/>
-      <c r="P18" s="164" t="s">
+      <c r="O18" s="180"/>
+      <c r="P18" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="164" t="s">
+      <c r="Q18" s="180"/>
+      <c r="R18" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="165"/>
-      <c r="T18" s="164" t="s">
+      <c r="S18" s="180"/>
+      <c r="T18" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="U18" s="165"/>
-      <c r="V18" s="164" t="s">
+      <c r="U18" s="180"/>
+      <c r="V18" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="164" t="s">
+      <c r="W18" s="180"/>
+      <c r="X18" s="180"/>
+      <c r="Y18" s="180"/>
+      <c r="Z18" s="180"/>
+      <c r="AA18" s="180"/>
+      <c r="AB18" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="166" t="s">
+      <c r="AC18" s="179"/>
+      <c r="AD18" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="166"/>
+      <c r="AE18" s="181"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="67"/>
       <c r="AT18" s="118"/>
@@ -14990,55 +14990,55 @@
       </c>
     </row>
     <row r="19" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A19" s="161">
+      <c r="A19" s="177">
         <v>2022090101</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="158" t="s">
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="167" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="162">
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="178">
         <v>0.375</v>
       </c>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162">
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="163">
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="170">
         <v>1</v>
       </c>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163">
+      <c r="O19" s="170"/>
+      <c r="P19" s="170">
         <v>1</v>
       </c>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163">
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170">
         <v>9</v>
       </c>
-      <c r="S19" s="163"/>
-      <c r="T19" s="158" t="s">
+      <c r="S19" s="170"/>
+      <c r="T19" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158" t="s">
+      <c r="U19" s="167"/>
+      <c r="V19" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="167"/>
-      <c r="AC19" s="167"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="168"/>
+      <c r="W19" s="167"/>
+      <c r="X19" s="167"/>
+      <c r="Y19" s="167"/>
+      <c r="Z19" s="167"/>
+      <c r="AA19" s="167"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="169"/>
+      <c r="AE19" s="169"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="67"/>
       <c r="AT19" s="119"/>
@@ -15048,55 +15048,55 @@
       </c>
     </row>
     <row r="20" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A20" s="161">
+      <c r="A20" s="177">
         <v>2022090201</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="158" t="s">
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="162">
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="178">
         <v>0.375</v>
       </c>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162">
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178">
         <v>0.75</v>
       </c>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="163">
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="170">
         <v>1</v>
       </c>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163">
+      <c r="O20" s="170"/>
+      <c r="P20" s="170">
         <v>0</v>
       </c>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163">
+      <c r="Q20" s="170"/>
+      <c r="R20" s="170">
         <v>8</v>
       </c>
-      <c r="S20" s="163"/>
-      <c r="T20" s="158" t="s">
+      <c r="S20" s="170"/>
+      <c r="T20" s="167" t="s">
         <v>221</v>
       </c>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158" t="s">
+      <c r="U20" s="167"/>
+      <c r="V20" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="167"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="168"/>
+      <c r="W20" s="167"/>
+      <c r="X20" s="167"/>
+      <c r="Y20" s="167"/>
+      <c r="Z20" s="167"/>
+      <c r="AA20" s="167"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="169"/>
+      <c r="AE20" s="169"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="67"/>
       <c r="AT20" s="119"/>
@@ -15106,616 +15106,616 @@
       </c>
     </row>
     <row r="21" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A21" s="161">
+      <c r="A21" s="177">
         <v>2022090301</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="158" t="s">
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="162">
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="178">
         <v>0.375</v>
       </c>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162">
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="163">
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="170">
         <v>1</v>
       </c>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163">
+      <c r="O21" s="170"/>
+      <c r="P21" s="170">
         <v>1</v>
       </c>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163">
+      <c r="Q21" s="170"/>
+      <c r="R21" s="170">
         <v>9</v>
       </c>
-      <c r="S21" s="163"/>
-      <c r="T21" s="158" t="s">
+      <c r="S21" s="170"/>
+      <c r="T21" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="U21" s="158"/>
-      <c r="V21" s="158" t="s">
+      <c r="U21" s="167"/>
+      <c r="V21" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="158"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="167"/>
-      <c r="AC21" s="167"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="168"/>
+      <c r="W21" s="167"/>
+      <c r="X21" s="167"/>
+      <c r="Y21" s="167"/>
+      <c r="Z21" s="167"/>
+      <c r="AA21" s="167"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="169"/>
+      <c r="AE21" s="169"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="67"/>
     </row>
     <row r="22" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A22" s="161">
+      <c r="A22" s="177">
         <v>2022090401</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="169"/>
-      <c r="S22" s="169"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="167"/>
-      <c r="AC22" s="167"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="168"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="167"/>
+      <c r="U22" s="167"/>
+      <c r="V22" s="167"/>
+      <c r="W22" s="167"/>
+      <c r="X22" s="167"/>
+      <c r="Y22" s="167"/>
+      <c r="Z22" s="167"/>
+      <c r="AA22" s="167"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="169"/>
+      <c r="AE22" s="169"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="67"/>
     </row>
     <row r="23" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A23" s="161">
+      <c r="A23" s="177">
         <v>2022090501</v>
       </c>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="167"/>
-      <c r="AC23" s="167"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="168"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="167"/>
+      <c r="V23" s="167"/>
+      <c r="W23" s="167"/>
+      <c r="X23" s="167"/>
+      <c r="Y23" s="167"/>
+      <c r="Z23" s="167"/>
+      <c r="AA23" s="167"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="169"/>
+      <c r="AE23" s="169"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="67"/>
     </row>
     <row r="24" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A24" s="161">
+      <c r="A24" s="177">
         <v>2022090601</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="167"/>
-      <c r="AC24" s="167"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="168"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="167"/>
+      <c r="V24" s="167"/>
+      <c r="W24" s="167"/>
+      <c r="X24" s="167"/>
+      <c r="Y24" s="167"/>
+      <c r="Z24" s="167"/>
+      <c r="AA24" s="167"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="169"/>
+      <c r="AE24" s="169"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="67"/>
     </row>
     <row r="25" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A25" s="161">
+      <c r="A25" s="177">
         <v>2022090701</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="169"/>
-      <c r="S25" s="169"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="167"/>
-      <c r="AC25" s="167"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="168"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="166"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="167"/>
+      <c r="V25" s="167"/>
+      <c r="W25" s="167"/>
+      <c r="X25" s="167"/>
+      <c r="Y25" s="167"/>
+      <c r="Z25" s="167"/>
+      <c r="AA25" s="167"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="169"/>
+      <c r="AE25" s="169"/>
       <c r="AF25" s="68"/>
       <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A26" s="161">
+      <c r="A26" s="177">
         <v>2022090801</v>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="167"/>
-      <c r="AC26" s="167"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="168"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="166"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="167"/>
+      <c r="W26" s="167"/>
+      <c r="X26" s="167"/>
+      <c r="Y26" s="167"/>
+      <c r="Z26" s="167"/>
+      <c r="AA26" s="167"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="169"/>
+      <c r="AE26" s="169"/>
       <c r="AF26" s="68"/>
       <c r="AG26" s="67"/>
     </row>
     <row r="27" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A27" s="161">
+      <c r="A27" s="177">
         <v>2022090901</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="169"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="167"/>
-      <c r="AC27" s="167"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="168"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="167"/>
+      <c r="U27" s="167"/>
+      <c r="V27" s="167"/>
+      <c r="W27" s="167"/>
+      <c r="X27" s="167"/>
+      <c r="Y27" s="167"/>
+      <c r="Z27" s="167"/>
+      <c r="AA27" s="167"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="168"/>
+      <c r="AD27" s="169"/>
+      <c r="AE27" s="169"/>
       <c r="AF27" s="68"/>
       <c r="AG27" s="67"/>
     </row>
     <row r="28" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A28" s="161">
+      <c r="A28" s="177">
         <v>2022091001</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="169"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="168"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="167"/>
+      <c r="U28" s="167"/>
+      <c r="V28" s="167"/>
+      <c r="W28" s="167"/>
+      <c r="X28" s="167"/>
+      <c r="Y28" s="167"/>
+      <c r="Z28" s="167"/>
+      <c r="AA28" s="167"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="168"/>
+      <c r="AD28" s="169"/>
+      <c r="AE28" s="169"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="67"/>
     </row>
     <row r="29" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A29" s="161">
+      <c r="A29" s="177">
         <v>2022091101</v>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="169"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="158"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="167"/>
-      <c r="AC29" s="167"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="168"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="167"/>
+      <c r="V29" s="167"/>
+      <c r="W29" s="167"/>
+      <c r="X29" s="167"/>
+      <c r="Y29" s="167"/>
+      <c r="Z29" s="167"/>
+      <c r="AA29" s="167"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="168"/>
+      <c r="AD29" s="169"/>
+      <c r="AE29" s="169"/>
       <c r="AF29" s="68"/>
       <c r="AG29" s="67"/>
     </row>
     <row r="30" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A30" s="161">
+      <c r="A30" s="177">
         <v>2022091201</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="167"/>
-      <c r="AC30" s="167"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="168"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="166"/>
+      <c r="T30" s="167"/>
+      <c r="U30" s="167"/>
+      <c r="V30" s="167"/>
+      <c r="W30" s="167"/>
+      <c r="X30" s="167"/>
+      <c r="Y30" s="167"/>
+      <c r="Z30" s="167"/>
+      <c r="AA30" s="167"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="169"/>
+      <c r="AE30" s="169"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="67"/>
     </row>
     <row r="31" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A31" s="161">
+      <c r="A31" s="177">
         <v>2022091301</v>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="169"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="158"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="167"/>
-      <c r="AC31" s="167"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="168"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="167"/>
+      <c r="L31" s="167"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="167"/>
+      <c r="V31" s="167"/>
+      <c r="W31" s="167"/>
+      <c r="X31" s="167"/>
+      <c r="Y31" s="167"/>
+      <c r="Z31" s="167"/>
+      <c r="AA31" s="167"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="169"/>
+      <c r="AE31" s="169"/>
       <c r="AF31" s="68"/>
       <c r="AG31" s="67"/>
     </row>
     <row r="32" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A32" s="161">
+      <c r="A32" s="177">
         <v>2022091401</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="169"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="167"/>
-      <c r="AC32" s="167"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="168"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="167"/>
+      <c r="U32" s="167"/>
+      <c r="V32" s="167"/>
+      <c r="W32" s="167"/>
+      <c r="X32" s="167"/>
+      <c r="Y32" s="167"/>
+      <c r="Z32" s="167"/>
+      <c r="AA32" s="167"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
+      <c r="AD32" s="169"/>
+      <c r="AE32" s="169"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="67"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="161">
+      <c r="A33" s="177">
         <v>2022091501</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="169"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="167"/>
+      <c r="U33" s="167"/>
+      <c r="V33" s="167"/>
+      <c r="W33" s="167"/>
+      <c r="X33" s="167"/>
+      <c r="Y33" s="167"/>
+      <c r="Z33" s="167"/>
+      <c r="AA33" s="167"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="169"/>
+      <c r="AE33" s="169"/>
       <c r="AF33" s="68"/>
       <c r="AG33" s="67"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="161">
+      <c r="A34" s="177">
         <v>2022091601</v>
       </c>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="169"/>
-      <c r="S34" s="169"/>
-      <c r="T34" s="158"/>
-      <c r="U34" s="158"/>
-      <c r="V34" s="158"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="158"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="167"/>
-      <c r="AC34" s="167"/>
-      <c r="AD34" s="168"/>
-      <c r="AE34" s="168"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
+      <c r="P34" s="170"/>
+      <c r="Q34" s="170"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="167"/>
+      <c r="U34" s="167"/>
+      <c r="V34" s="167"/>
+      <c r="W34" s="167"/>
+      <c r="X34" s="167"/>
+      <c r="Y34" s="167"/>
+      <c r="Z34" s="167"/>
+      <c r="AA34" s="167"/>
+      <c r="AB34" s="168"/>
+      <c r="AC34" s="168"/>
+      <c r="AD34" s="169"/>
+      <c r="AE34" s="169"/>
       <c r="AF34" s="68"/>
       <c r="AG34" s="67"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="161">
+      <c r="A35" s="177">
         <v>2022091701</v>
       </c>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="169"/>
-      <c r="S35" s="169"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="158"/>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="158"/>
-      <c r="Z35" s="158"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="167"/>
-      <c r="AC35" s="167"/>
-      <c r="AD35" s="168"/>
-      <c r="AE35" s="168"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="170"/>
+      <c r="Q35" s="170"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="167"/>
+      <c r="U35" s="167"/>
+      <c r="V35" s="167"/>
+      <c r="W35" s="167"/>
+      <c r="X35" s="167"/>
+      <c r="Y35" s="167"/>
+      <c r="Z35" s="167"/>
+      <c r="AA35" s="167"/>
+      <c r="AB35" s="168"/>
+      <c r="AC35" s="168"/>
+      <c r="AD35" s="169"/>
+      <c r="AE35" s="169"/>
       <c r="AF35" s="68"/>
       <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="170" t="s">
+      <c r="A36" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="171"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="177">
+      <c r="B36" s="172"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
+      <c r="O36" s="163"/>
+      <c r="P36" s="161">
         <f>SUM(P19:Q35)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="178">
+      <c r="Q36" s="161"/>
+      <c r="R36" s="162">
         <f>SUM(R19:S35)</f>
         <v>26</v>
       </c>
-      <c r="S36" s="178"/>
-      <c r="T36" s="176"/>
-      <c r="U36" s="176"/>
-      <c r="V36" s="176"/>
-      <c r="W36" s="176"/>
-      <c r="X36" s="176"/>
-      <c r="Y36" s="176"/>
-      <c r="Z36" s="176"/>
-      <c r="AA36" s="176"/>
-      <c r="AB36" s="179"/>
-      <c r="AC36" s="179"/>
-      <c r="AD36" s="180"/>
-      <c r="AE36" s="180"/>
+      <c r="S36" s="162"/>
+      <c r="T36" s="163"/>
+      <c r="U36" s="163"/>
+      <c r="V36" s="163"/>
+      <c r="W36" s="163"/>
+      <c r="X36" s="163"/>
+      <c r="Y36" s="163"/>
+      <c r="Z36" s="163"/>
+      <c r="AA36" s="163"/>
+      <c r="AB36" s="164"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="165"/>
+      <c r="AE36" s="165"/>
       <c r="AF36" s="68"/>
       <c r="AG36" s="67"/>
     </row>
@@ -16001,191 +16001,25 @@
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -16210,25 +16044,191 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="P35:Q35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -16272,174 +16272,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="141"/>
     </row>
     <row r="3" spans="1:178" ht="12">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="135"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="138"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -16655,7 +16655,7 @@
       <c r="G6" s="101">
         <v>10</v>
       </c>
-      <c r="H6" s="237" t="s">
+      <c r="H6" s="126" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="101"/>
@@ -16705,7 +16705,7 @@
       <c r="G7" s="101">
         <v>50</v>
       </c>
-      <c r="H7" s="237" t="s">
+      <c r="H7" s="126" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="101"/>
@@ -16755,7 +16755,7 @@
       <c r="G8" s="101">
         <v>50</v>
       </c>
-      <c r="H8" s="237" t="s">
+      <c r="H8" s="126" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="101"/>
@@ -16805,7 +16805,7 @@
       <c r="G9" s="101">
         <v>12</v>
       </c>
-      <c r="H9" s="237" t="s">
+      <c r="H9" s="126" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="101"/>
@@ -17215,7 +17215,7 @@
       <c r="C18" s="99"/>
       <c r="D18" s="99"/>
       <c r="E18" s="100"/>
-      <c r="F18" s="238" t="s">
+      <c r="F18" s="127" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="101"/>
@@ -17259,7 +17259,7 @@
       <c r="C19" s="99"/>
       <c r="D19" s="99"/>
       <c r="E19" s="100"/>
-      <c r="F19" s="238" t="s">
+      <c r="F19" s="127" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="101"/>
@@ -17351,7 +17351,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="101"/>
-      <c r="H21" s="238" t="s">
+      <c r="H21" s="127" t="s">
         <v>124</v>
       </c>
       <c r="I21" s="101"/>
@@ -17401,7 +17401,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="101"/>
-      <c r="H22" s="238" t="s">
+      <c r="H22" s="127" t="s">
         <v>124</v>
       </c>
       <c r="I22" s="101"/>
@@ -17674,18 +17674,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17718,170 +17718,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="141"/>
     </row>
     <row r="3" spans="1:178" ht="12">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="135"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="138"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93" t="s">
@@ -18116,7 +18116,7 @@
       <c r="D7" s="99"/>
       <c r="E7" s="99"/>
       <c r="F7" s="100"/>
-      <c r="G7" s="239" t="s">
+      <c r="G7" s="128" t="s">
         <v>238</v>
       </c>
       <c r="H7" s="99"/>
@@ -18748,16 +18748,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -18788,180 +18788,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="141"/>
     </row>
     <row r="3" spans="1:178" ht="12">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="135" t="s">
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="135"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="138"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="192"/>
       <c r="G5" s="103" t="s">
         <v>239</v>
       </c>
@@ -19140,12 +19140,12 @@
       <c r="FV5" s="23"/>
     </row>
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="186"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="106" t="s">
         <v>46</v>
       </c>
@@ -19899,17 +19899,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A5:F6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19939,227 +19939,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="141"/>
     </row>
     <row r="3" spans="1:178" ht="12">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="135"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="138"/>
     </row>
     <row r="5" spans="1:178" ht="14.25" customHeight="1">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="199" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="187" t="s">
+      <c r="L5" s="209"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="188"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="189"/>
-      <c r="AB5" s="193" t="s">
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="194"/>
-      <c r="AD5" s="194"/>
-      <c r="AE5" s="194"/>
-      <c r="AF5" s="194"/>
-      <c r="AG5" s="194"/>
-      <c r="AH5" s="195"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="204"/>
     </row>
     <row r="6" spans="1:178" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="109" t="s">
         <v>37</v>
       </c>
@@ -20173,19 +20173,19 @@
         <v>56</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="190" t="s">
+      <c r="K6" s="211"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="212"/>
+      <c r="P6" s="213"/>
+      <c r="Q6" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="192"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="201"/>
       <c r="V6" s="93" t="s">
         <v>61</v>
       </c>
@@ -20196,13 +20196,13 @@
       <c r="AA6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="198"/>
+      <c r="AB6" s="205"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="206"/>
+      <c r="AG6" s="206"/>
+      <c r="AH6" s="207"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="23"/>
@@ -21342,12 +21342,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="AB5:AH6"/>
@@ -21360,6 +21354,12 @@
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="N2:X2"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21390,174 +21390,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="141"/>
     </row>
     <row r="3" spans="1:178" ht="12">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="135"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="138"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="111"/>
@@ -23049,18 +23049,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
